--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1881.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1881.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.679898244890799</v>
+        <v>1.722364187240601</v>
       </c>
       <c r="B1">
-        <v>4.386840923851535</v>
+        <v>1.707981705665588</v>
       </c>
       <c r="C1">
-        <v>3.985198112407424</v>
+        <v>2.025704622268677</v>
       </c>
       <c r="D1">
-        <v>1.105039857339212</v>
+        <v>3.773809671401978</v>
       </c>
       <c r="E1">
-        <v>0.6507857713185264</v>
+        <v>3.80626392364502</v>
       </c>
     </row>
   </sheetData>
